--- a/data/GreatLink/GreatLink Global Emerging Markets Equity.xlsx
+++ b/data/GreatLink/GreatLink Global Emerging Markets Equity.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid545575"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid633520"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Global Emerging Markets Equity.xlsx
+++ b/data/GreatLink/GreatLink Global Emerging Markets Equity.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid334535"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid695816"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
